--- a/CadastroProdutos.xlsx
+++ b/CadastroProdutos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c31efe2ab8cc5246/Documentos/GitHub/Analise-de-Vendas-e-Produtos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE4F394A-8DC3-471A-A4AB-43E6D6E7E505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{D71B3940-352A-4F35-B32E-0DB76EE1F6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{254CAE82-AE6E-43B1-8313-47B317CBE5D2}"/>
+    <workbookView xWindow="20370" yWindow="-2760" windowWidth="29040" windowHeight="15720" xr2:uid="{254CAE82-AE6E-43B1-8313-47B317CBE5D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -174,7 +174,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,6 +191,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor theme="5" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="5"/>
       </patternFill>
     </fill>
   </fills>
@@ -275,7 +281,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -289,6 +295,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -308,9 +315,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -348,7 +355,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -454,7 +461,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -596,7 +603,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -604,9 +611,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090B8796-9456-4BFA-A9C9-CE73AD9DB236}">
-  <dimension ref="A1:E668"/>
+  <dimension ref="A1:F668"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -617,7 +626,7 @@
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,8 +642,9 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>2096</v>
       </c>
@@ -651,7 +661,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2097</v>
       </c>
@@ -668,7 +678,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>462</v>
       </c>
@@ -685,7 +695,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>467</v>
       </c>
@@ -702,7 +712,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>691</v>
       </c>
@@ -719,7 +729,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>692</v>
       </c>
@@ -736,7 +746,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>693</v>
       </c>
@@ -753,7 +763,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>694</v>
       </c>
@@ -770,7 +780,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>702</v>
       </c>
@@ -787,7 +797,7 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>469</v>
       </c>
@@ -804,7 +814,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>695</v>
       </c>
@@ -821,7 +831,7 @@
         <v>4.71</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>696</v>
       </c>
@@ -838,7 +848,7 @@
         <v>4.67</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>468</v>
       </c>
@@ -855,7 +865,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>483</v>
       </c>
@@ -872,7 +882,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>703</v>
       </c>
